--- a/заказы/статистика филиалы/2023/11,23/29,11,23 КИ/дв 29,11,23 млрсч.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/29,11,23 КИ/дв 29,11,23 млрсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\29,11,23 филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\29,11,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFFB5B8-B08E-41E9-9E57-5648E421D248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2E453D-A7DE-4801-9471-879762797E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AB$78</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -365,6 +365,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -401,7 +403,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,7 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -596,9 +604,6 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -606,6 +611,12 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6527,7 +6538,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:AC1048576"/>
+      <selection pane="bottomLeft" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6673,7 +6684,7 @@
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="24" t="s">
         <v>103</v>
       </c>
       <c r="P4" s="17"/>
@@ -6798,7 +6809,7 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="23" t="str">
+      <c r="C6" s="27" t="str">
         <f>VLOOKUP(A6,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -6840,10 +6851,10 @@
         <f>L6/5</f>
         <v>5.6143999999999998</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
       <c r="V6" s="2">
         <f>(G6+O6+Q6+R6+S6)/P6</f>
         <v>13.539469934454262</v>
@@ -6929,12 +6940,12 @@
         <f t="shared" ref="P7:P70" si="8">L7/5</f>
         <v>97.908800000000014</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="23">
         <v>750</v>
       </c>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
       <c r="V7" s="2">
         <f t="shared" ref="V7:V70" si="9">(G7+O7+Q7+R7+S7)/P7</f>
         <v>8.6459439805206468</v>
@@ -7020,10 +7031,10 @@
         <f t="shared" si="8"/>
         <v>19.589200000000002</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
       <c r="V8" s="2">
         <f t="shared" si="9"/>
         <v>44.512945908970245</v>
@@ -7105,12 +7116,12 @@
         <f t="shared" si="8"/>
         <v>40.3812</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="23">
         <v>220</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
       <c r="V9" s="2">
         <f t="shared" si="9"/>
         <v>12.638257406912128</v>
@@ -7192,10 +7203,10 @@
         <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
       <c r="V10" s="2">
         <f t="shared" si="9"/>
         <v>486.66666666666669</v>
@@ -7281,10 +7292,10 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
       <c r="V11" s="2">
         <f t="shared" si="9"/>
         <v>20</v>
@@ -7370,12 +7381,12 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="23">
         <v>35</v>
       </c>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
       <c r="V12" s="2">
         <f t="shared" si="9"/>
         <v>13.333333333333334</v>
@@ -7416,7 +7427,7 @@
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="23" t="str">
+      <c r="C13" s="27" t="str">
         <f>VLOOKUP(A13,[1]TDSheet!$A:$C,3,0)</f>
         <v>бонус_Н</v>
       </c>
@@ -7426,7 +7437,7 @@
       <c r="E13" s="9">
         <v>118</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="26">
         <f>48+F76</f>
         <v>99.646000000000001</v>
       </c>
@@ -7463,12 +7474,12 @@
         <f t="shared" si="8"/>
         <v>6.7292000000000005</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="25">
         <v>120</v>
       </c>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="24"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="23"/>
       <c r="V13" s="2">
         <f t="shared" si="9"/>
         <v>17.832729001961599</v>
@@ -7548,10 +7559,10 @@
         <f t="shared" si="8"/>
         <v>12.4</v>
       </c>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
       <c r="V14" s="2">
         <f t="shared" si="9"/>
         <v>16.29032258064516</v>
@@ -7633,12 +7644,12 @@
         <f t="shared" si="8"/>
         <v>21.4</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="23">
         <v>130</v>
       </c>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
       <c r="V15" s="2">
         <f t="shared" si="9"/>
         <v>12.570093457943926</v>
@@ -7724,12 +7735,12 @@
         <f t="shared" si="8"/>
         <v>22.6</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="23">
         <v>160</v>
       </c>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
       <c r="V16" s="2">
         <f t="shared" si="9"/>
         <v>12.654867256637168</v>
@@ -7815,12 +7826,12 @@
         <f t="shared" si="8"/>
         <v>23.2</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="23">
         <v>60</v>
       </c>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
       <c r="V17" s="2">
         <f t="shared" si="9"/>
         <v>13.103448275862069</v>
@@ -7861,7 +7872,7 @@
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="23" t="str">
+      <c r="C18" s="27" t="str">
         <f>VLOOKUP(A18,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -7909,12 +7920,12 @@
         <f t="shared" si="8"/>
         <v>51.936400000000006</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="23">
         <v>400</v>
       </c>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
       <c r="V18" s="2">
         <f t="shared" si="9"/>
         <v>11.635519597045617</v>
@@ -8000,14 +8011,14 @@
         <f t="shared" si="8"/>
         <v>578.78280000000018</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="23">
         <v>1300</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="23">
         <v>1000</v>
       </c>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
       <c r="V19" s="2">
         <f t="shared" si="9"/>
         <v>12.743476482023995</v>
@@ -8048,7 +8059,7 @@
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="23" t="str">
+      <c r="C20" s="27" t="str">
         <f>VLOOKUP(A20,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -8096,12 +8107,12 @@
         <f t="shared" si="8"/>
         <v>75.852800000000002</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="23">
         <v>550</v>
       </c>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
       <c r="V20" s="2">
         <f t="shared" si="9"/>
         <v>12.919022105973674</v>
@@ -8187,14 +8198,14 @@
         <f t="shared" si="8"/>
         <v>736.19959999999992</v>
       </c>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24">
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23">
         <v>1000</v>
       </c>
-      <c r="S21" s="24">
+      <c r="S21" s="23">
         <v>1000</v>
       </c>
-      <c r="T21" s="24"/>
+      <c r="T21" s="23"/>
       <c r="V21" s="2">
         <f t="shared" si="9"/>
         <v>12.76658395359085</v>
@@ -8235,7 +8246,7 @@
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="23" t="str">
+      <c r="C22" s="27" t="str">
         <f>VLOOKUP(A22,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -8283,12 +8294,12 @@
         <f t="shared" si="8"/>
         <v>13.040000000000003</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="23">
         <v>80</v>
       </c>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
       <c r="V22" s="2">
         <f t="shared" si="9"/>
         <v>12.460122699386503</v>
@@ -8329,7 +8340,7 @@
       <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="23" t="str">
+      <c r="C23" s="27" t="str">
         <f>VLOOKUP(A23,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -8339,11 +8350,11 @@
       <c r="E23" s="9">
         <v>435.91199999999998</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="26">
         <f>802.579+F77</f>
         <v>823.69899999999996</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="26">
         <f>158.455+G77</f>
         <v>152.24300000000002</v>
       </c>
@@ -8379,12 +8390,12 @@
         <f t="shared" si="8"/>
         <v>83.447800000000001</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="23">
         <v>650</v>
       </c>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
       <c r="V23" s="2">
         <f t="shared" si="9"/>
         <v>9.6137106071100735</v>
@@ -8470,16 +8481,16 @@
         <f t="shared" si="8"/>
         <v>795.5218000000001</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="23">
         <v>500</v>
       </c>
-      <c r="R24" s="24">
+      <c r="R24" s="23">
         <v>2000</v>
       </c>
-      <c r="S24" s="24">
+      <c r="S24" s="23">
         <v>700</v>
       </c>
-      <c r="T24" s="24"/>
+      <c r="T24" s="23"/>
       <c r="V24" s="2">
         <f t="shared" si="9"/>
         <v>12.511531425034486</v>
@@ -8565,12 +8576,12 @@
         <f t="shared" si="8"/>
         <v>453.63960000000009</v>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="23">
         <v>1600</v>
       </c>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
       <c r="V25" s="2">
         <f t="shared" si="9"/>
         <v>12.681531771035859</v>
@@ -8611,7 +8622,7 @@
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="23" t="str">
+      <c r="C26" s="27" t="str">
         <f>VLOOKUP(A26,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -8659,12 +8670,12 @@
         <f t="shared" si="8"/>
         <v>59.073399999999992</v>
       </c>
-      <c r="Q26" s="24">
+      <c r="Q26" s="23">
         <v>300</v>
       </c>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
       <c r="V26" s="2">
         <f t="shared" si="9"/>
         <v>12.603269830414368</v>
@@ -8705,7 +8716,7 @@
       <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="23" t="str">
+      <c r="C27" s="27" t="str">
         <f>VLOOKUP(A27,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -8751,12 +8762,12 @@
         <f t="shared" si="8"/>
         <v>16.574000000000002</v>
       </c>
-      <c r="Q27" s="24">
+      <c r="Q27" s="23">
         <v>110</v>
       </c>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
       <c r="V27" s="2">
         <f t="shared" si="9"/>
         <v>6.6369011705080236</v>
@@ -8797,7 +8808,7 @@
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="23" t="str">
+      <c r="C28" s="27" t="str">
         <f>VLOOKUP(A28,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -8845,12 +8856,12 @@
         <f t="shared" si="8"/>
         <v>57.295000000000002</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="23">
         <v>430</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
       <c r="V28" s="2">
         <f t="shared" si="9"/>
         <v>12.560816825202897</v>
@@ -8936,12 +8947,12 @@
         <f t="shared" si="8"/>
         <v>35.9452</v>
       </c>
-      <c r="Q29" s="24">
+      <c r="Q29" s="23">
         <v>280</v>
       </c>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
       <c r="V29" s="2">
         <f t="shared" si="9"/>
         <v>11.743515128584622</v>
@@ -9027,10 +9038,10 @@
         <f t="shared" si="8"/>
         <v>4.8810000000000002</v>
       </c>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
       <c r="V30" s="2">
         <f t="shared" si="9"/>
         <v>26.979102642901044</v>
@@ -9116,12 +9127,12 @@
         <f t="shared" si="8"/>
         <v>93.890799999999984</v>
       </c>
-      <c r="Q31" s="24">
+      <c r="Q31" s="23">
         <v>700</v>
       </c>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
       <c r="V31" s="2">
         <f t="shared" si="9"/>
         <v>12.117896535123784</v>
@@ -9207,12 +9218,12 @@
         <f t="shared" si="8"/>
         <v>62.185199999999988</v>
       </c>
-      <c r="Q32" s="24">
+      <c r="Q32" s="23">
         <v>350</v>
       </c>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
       <c r="V32" s="2">
         <f t="shared" si="9"/>
         <v>12.80869081389141</v>
@@ -9298,10 +9309,10 @@
         <f t="shared" si="8"/>
         <v>3.2216000000000009</v>
       </c>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
       <c r="V33" s="2">
         <f t="shared" si="9"/>
         <v>17.137136826421649</v>
@@ -9374,10 +9385,10 @@
         <f t="shared" si="8"/>
         <v>0.78239999999999998</v>
       </c>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
       <c r="V34" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -9460,12 +9471,12 @@
         <f t="shared" si="8"/>
         <v>112.33120000000001</v>
       </c>
-      <c r="Q35" s="24">
+      <c r="Q35" s="23">
         <v>450</v>
       </c>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
       <c r="V35" s="2">
         <f t="shared" si="9"/>
         <v>12.577547466776817</v>
@@ -9551,12 +9562,12 @@
         <f t="shared" si="8"/>
         <v>50.537800000000018</v>
       </c>
-      <c r="Q36" s="24">
+      <c r="Q36" s="23">
         <v>400</v>
       </c>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
       <c r="V36" s="2">
         <f t="shared" si="9"/>
         <v>8.5960805575232762</v>
@@ -9638,12 +9649,12 @@
         <f t="shared" si="8"/>
         <v>27.511399999999998</v>
       </c>
-      <c r="Q37" s="24">
+      <c r="Q37" s="23">
         <v>40</v>
       </c>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
       <c r="V37" s="2">
         <f t="shared" si="9"/>
         <v>12.90981193250798</v>
@@ -9729,12 +9740,12 @@
         <f t="shared" si="8"/>
         <v>24.428400000000003</v>
       </c>
-      <c r="Q38" s="24">
+      <c r="Q38" s="23">
         <v>90</v>
       </c>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
       <c r="V38" s="2">
         <f t="shared" si="9"/>
         <v>12.813937875587429</v>
@@ -9820,10 +9831,10 @@
         <f t="shared" si="8"/>
         <v>69.367200000000054</v>
       </c>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
       <c r="V39" s="2">
         <f t="shared" si="9"/>
         <v>15.205918647429897</v>
@@ -9909,12 +9920,12 @@
         <f t="shared" si="8"/>
         <v>74.504199999999997</v>
       </c>
-      <c r="Q40" s="24">
+      <c r="Q40" s="23">
         <v>280</v>
       </c>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
       <c r="V40" s="2">
         <f t="shared" si="9"/>
         <v>12.901487432923245</v>
@@ -10000,12 +10011,12 @@
         <f t="shared" si="8"/>
         <v>31.046199999999999</v>
       </c>
-      <c r="Q41" s="24">
+      <c r="Q41" s="23">
         <v>15</v>
       </c>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
       <c r="V41" s="2">
         <f t="shared" si="9"/>
         <v>12.905734035083197</v>
@@ -10082,10 +10093,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
       <c r="V42" s="2" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -10164,10 +10175,10 @@
         <f t="shared" si="8"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
       <c r="V43" s="2">
         <f t="shared" si="9"/>
         <v>324.21034482758625</v>
@@ -10208,7 +10219,7 @@
       <c r="B44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="23" t="str">
+      <c r="C44" s="27" t="str">
         <f>VLOOKUP(A44,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -10254,12 +10265,12 @@
         <f t="shared" si="8"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="Q44" s="24">
+      <c r="Q44" s="23">
         <v>140</v>
       </c>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
       <c r="V44" s="2">
         <f t="shared" si="9"/>
         <v>7.608695652173914</v>
@@ -10336,10 +10347,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
       <c r="V45" s="2" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -10422,12 +10433,12 @@
         <f t="shared" si="8"/>
         <v>42.79440000000001</v>
       </c>
-      <c r="Q46" s="24">
+      <c r="Q46" s="23">
         <v>300</v>
       </c>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
       <c r="V46" s="2">
         <f t="shared" si="9"/>
         <v>12.456723309591906</v>
@@ -10468,7 +10479,7 @@
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="23" t="str">
+      <c r="C47" s="27" t="str">
         <f>VLOOKUP(A47,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -10514,12 +10525,12 @@
         <f t="shared" si="8"/>
         <v>13.2</v>
       </c>
-      <c r="Q47" s="24">
+      <c r="Q47" s="23">
         <v>100</v>
       </c>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
       <c r="V47" s="2">
         <f t="shared" si="9"/>
         <v>7.5757575757575761</v>
@@ -10560,7 +10571,7 @@
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="23" t="str">
+      <c r="C48" s="27" t="str">
         <f>VLOOKUP(A48,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -10608,12 +10619,12 @@
         <f t="shared" si="8"/>
         <v>145.4</v>
       </c>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24">
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23">
         <v>1100</v>
       </c>
-      <c r="T48" s="24"/>
+      <c r="T48" s="23"/>
       <c r="V48" s="2">
         <f t="shared" si="9"/>
         <v>10.632737276478679</v>
@@ -10654,7 +10665,7 @@
       <c r="B49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="23" t="str">
+      <c r="C49" s="27" t="str">
         <f>VLOOKUP(A49,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -10702,12 +10713,12 @@
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="Q49" s="24">
+      <c r="Q49" s="23">
         <v>380</v>
       </c>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
       <c r="V49" s="2">
         <f t="shared" si="9"/>
         <v>12.964705882352941</v>
@@ -10748,7 +10759,7 @@
       <c r="B50" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="23" t="str">
+      <c r="C50" s="27" t="str">
         <f>VLOOKUP(A50,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -10790,12 +10801,12 @@
         <f t="shared" si="8"/>
         <v>6.2804000000000002</v>
       </c>
-      <c r="Q50" s="24">
+      <c r="Q50" s="23">
         <v>30</v>
       </c>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
       <c r="V50" s="2">
         <f t="shared" si="9"/>
         <v>13.847525635309854</v>
@@ -10836,7 +10847,7 @@
       <c r="B51" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="23" t="str">
+      <c r="C51" s="27" t="str">
         <f>VLOOKUP(A51,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -10880,12 +10891,12 @@
         <f t="shared" si="8"/>
         <v>15.848599999999999</v>
       </c>
-      <c r="Q51" s="24">
+      <c r="Q51" s="23">
         <v>55</v>
       </c>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
       <c r="V51" s="2">
         <f t="shared" si="9"/>
         <v>12.901644309276531</v>
@@ -10926,7 +10937,7 @@
       <c r="B52" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="23" t="str">
+      <c r="C52" s="27" t="str">
         <f>VLOOKUP(A52,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -10968,12 +10979,12 @@
         <f t="shared" si="8"/>
         <v>12.2164</v>
       </c>
-      <c r="Q52" s="24">
+      <c r="Q52" s="23">
         <v>90</v>
       </c>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
       <c r="V52" s="2">
         <f t="shared" si="9"/>
         <v>11.330997675256214</v>
@@ -11059,10 +11070,10 @@
         <f t="shared" si="8"/>
         <v>6.6059999999999999</v>
       </c>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
       <c r="V53" s="2">
         <f t="shared" si="9"/>
         <v>21.362851952770207</v>
@@ -11148,10 +11159,10 @@
         <f t="shared" si="8"/>
         <v>3.2115999999999985</v>
       </c>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
       <c r="V54" s="2">
         <f t="shared" si="9"/>
         <v>70.620562959272675</v>
@@ -11237,12 +11248,12 @@
         <f t="shared" si="8"/>
         <v>22.662599999999998</v>
       </c>
-      <c r="Q55" s="24">
+      <c r="Q55" s="23">
         <v>40</v>
       </c>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
       <c r="V55" s="2">
         <f t="shared" si="9"/>
         <v>13.238286869114754</v>
@@ -11326,12 +11337,12 @@
         <f t="shared" si="8"/>
         <v>76.825600000000037</v>
       </c>
-      <c r="Q56" s="24">
+      <c r="Q56" s="23">
         <v>600</v>
       </c>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
       <c r="V56" s="2">
         <f t="shared" si="9"/>
         <v>7.8098967010996301</v>
@@ -11372,7 +11383,7 @@
       <c r="B57" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="23" t="str">
+      <c r="C57" s="27" t="str">
         <f>VLOOKUP(A57,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -11420,12 +11431,12 @@
         <f t="shared" si="8"/>
         <v>113.2</v>
       </c>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24">
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23">
         <v>900</v>
       </c>
-      <c r="T57" s="24"/>
+      <c r="T57" s="23"/>
       <c r="V57" s="2">
         <f t="shared" si="9"/>
         <v>12.968197879858657</v>
@@ -11507,10 +11518,10 @@
         <f t="shared" si="8"/>
         <v>11.1852</v>
       </c>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="24"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
       <c r="V58" s="2">
         <f t="shared" si="9"/>
         <v>17.673354075027717</v>
@@ -11596,10 +11607,10 @@
         <f t="shared" si="8"/>
         <v>47.303600000000003</v>
       </c>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
-      <c r="T59" s="24"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23"/>
       <c r="V59" s="2">
         <f t="shared" si="9"/>
         <v>16.923130586255589</v>
@@ -11685,12 +11696,12 @@
         <f t="shared" si="8"/>
         <v>31.8</v>
       </c>
-      <c r="Q60" s="24">
+      <c r="Q60" s="23">
         <v>230</v>
       </c>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="23"/>
       <c r="V60" s="2">
         <f t="shared" si="9"/>
         <v>12.389937106918239</v>
@@ -11767,10 +11778,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="24"/>
-      <c r="T61" s="24"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="23"/>
       <c r="V61" s="2" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -11808,7 +11819,7 @@
       <c r="B62" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="23" t="str">
+      <c r="C62" s="27" t="str">
         <f>VLOOKUP(A62,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -11854,10 +11865,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="24"/>
-      <c r="T62" s="24"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
       <c r="V62" s="2" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -11939,12 +11950,12 @@
         <f t="shared" si="8"/>
         <v>9.2938000000000009</v>
       </c>
-      <c r="Q63" s="24">
+      <c r="Q63" s="23">
         <v>70</v>
       </c>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="24"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
       <c r="V63" s="2">
         <f t="shared" si="9"/>
         <v>8.3904323312315725</v>
@@ -12026,10 +12037,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
       <c r="V64" s="2" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -12070,7 +12081,7 @@
       <c r="B65" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="23" t="str">
+      <c r="C65" s="27" t="str">
         <f>VLOOKUP(A65,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -12112,10 +12123,10 @@
         <f t="shared" si="8"/>
         <v>7.5180000000000007</v>
       </c>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
-      <c r="T65" s="24"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="23"/>
       <c r="V65" s="2">
         <f t="shared" si="9"/>
         <v>15.891460494812447</v>
@@ -12156,7 +12167,7 @@
       <c r="B66" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="23" t="str">
+      <c r="C66" s="27" t="str">
         <f>VLOOKUP(A66,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -12200,10 +12211,10 @@
         <f t="shared" si="8"/>
         <v>2.4081999999999999</v>
       </c>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
       <c r="V66" s="2">
         <f t="shared" si="9"/>
         <v>24.899094759571465</v>
@@ -12244,7 +12255,7 @@
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="23" t="str">
+      <c r="C67" s="28" t="str">
         <f>VLOOKUP(A67,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -12280,10 +12291,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="24"/>
-      <c r="T67" s="24"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="23"/>
       <c r="V67" s="2" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -12324,7 +12335,7 @@
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="23" t="str">
+      <c r="C68" s="27" t="str">
         <f>VLOOKUP(A68,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -12364,12 +12375,12 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="Q68" s="24">
+      <c r="Q68" s="23">
         <v>90</v>
       </c>
-      <c r="R68" s="24"/>
-      <c r="S68" s="24"/>
-      <c r="T68" s="24"/>
+      <c r="R68" s="23"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="23"/>
       <c r="V68" s="2">
         <f t="shared" si="9"/>
         <v>7.5</v>
@@ -12451,10 +12462,10 @@
         <f t="shared" si="8"/>
         <v>5.3898000000000001</v>
       </c>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
       <c r="V69" s="2">
         <f t="shared" si="9"/>
         <v>17.770789268618501</v>
@@ -12495,7 +12506,7 @@
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="23" t="str">
+      <c r="C70" s="27" t="str">
         <f>VLOOKUP(A70,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -12539,12 +12550,12 @@
         <f t="shared" si="8"/>
         <v>67.2</v>
       </c>
-      <c r="Q70" s="24">
+      <c r="Q70" s="23">
         <v>170</v>
       </c>
-      <c r="R70" s="24"/>
-      <c r="S70" s="24"/>
-      <c r="T70" s="24"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="23"/>
       <c r="V70" s="2">
         <f t="shared" si="9"/>
         <v>12.797619047619047</v>
@@ -12630,12 +12641,12 @@
         <f t="shared" ref="P71:P78" si="17">L71/5</f>
         <v>17.180200000000003</v>
       </c>
-      <c r="Q71" s="24">
+      <c r="Q71" s="23">
         <v>120</v>
       </c>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="24"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="23"/>
       <c r="V71" s="2">
         <f t="shared" ref="V71:V78" si="18">(G71+O71+Q71+R71+S71)/P71</f>
         <v>7.0903714741388324</v>
@@ -12721,12 +12732,12 @@
         <f t="shared" si="17"/>
         <v>15.334000000000003</v>
       </c>
-      <c r="Q72" s="24">
+      <c r="Q72" s="23">
         <v>120</v>
       </c>
-      <c r="R72" s="24"/>
-      <c r="S72" s="24"/>
-      <c r="T72" s="24"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="23"/>
       <c r="V72" s="2">
         <f t="shared" si="18"/>
         <v>8.6796008869179584</v>
@@ -12808,10 +12819,10 @@
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24"/>
-      <c r="S73" s="24"/>
-      <c r="T73" s="24"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="23"/>
       <c r="V73" s="2">
         <f t="shared" si="18"/>
         <v>28.818181818181817</v>
@@ -12893,12 +12904,12 @@
         <f t="shared" si="17"/>
         <v>38.6</v>
       </c>
-      <c r="Q74" s="24">
+      <c r="Q74" s="23">
         <v>200</v>
       </c>
-      <c r="R74" s="24"/>
-      <c r="S74" s="24"/>
-      <c r="T74" s="24"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="23"/>
       <c r="V74" s="2">
         <f t="shared" si="18"/>
         <v>11.891191709844559</v>
@@ -12975,10 +12986,10 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="24"/>
-      <c r="T75" s="24"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="23"/>
       <c r="V75" s="2" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -13021,7 +13032,7 @@
       <c r="E76" s="9">
         <v>51.646000000000001</v>
       </c>
-      <c r="F76" s="27">
+      <c r="F76" s="26">
         <v>51.646000000000001</v>
       </c>
       <c r="G76" s="9"/>
@@ -13053,10 +13064,10 @@
         <f t="shared" si="17"/>
         <v>10.3292</v>
       </c>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="24"/>
-      <c r="T76" s="24"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="23"/>
+      <c r="T76" s="23"/>
       <c r="V76" s="2">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13102,10 +13113,10 @@
       <c r="E77" s="9">
         <v>51.929000000000002</v>
       </c>
-      <c r="F77" s="27">
+      <c r="F77" s="26">
         <v>21.12</v>
       </c>
-      <c r="G77" s="27">
+      <c r="G77" s="26">
         <v>-6.2119999999999997</v>
       </c>
       <c r="H77" s="21">
@@ -13136,10 +13147,10 @@
         <f t="shared" si="17"/>
         <v>4.2240000000000002</v>
       </c>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="24"/>
-      <c r="S77" s="24"/>
-      <c r="T77" s="24"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
       <c r="V77" s="2">
         <f t="shared" si="18"/>
         <v>-1.4706439393939392</v>
@@ -13217,10 +13228,10 @@
         <f t="shared" si="17"/>
         <v>0.26880000000000004</v>
       </c>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="24"/>
-      <c r="T78" s="24"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="23"/>
       <c r="V78" s="2">
         <f t="shared" si="18"/>
         <v>0</v>
